--- a/ERP/ERP.Web/Content/Files/IMPORT_HANGHOA.xlsx
+++ b/ERP/ERP.Web/Content/Files/IMPORT_HANGHOA.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HOPLONGTECH\Chuan\04052017\ERP15042017\ERP\ERP.Web\Content\Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12975" windowHeight="8145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -160,6 +165,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -420,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,7 +439,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
